--- a/data/4/20230604-a1r-nc-session4-b_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-b_transcript.xlsx
@@ -1,420 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FDDF28-CA84-3E4F-AD6F-92AE5D2285E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"9:51"</t>
-  </si>
-  <si>
-    <t>I think citizens united was a mistake. I think allowing so much money to be pumped into these campaigns was just a bad idea. In general, I think there should be a Max not contribution but like Max budget for every candidate at each level because I think that would lit level the playing field a bit and especially allow more third-party candidates to have a voice. That's just as loud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> One reasons that third-party candidates are pushed out is because we allow these two party candidates gets so much money.</t>
-  </si>
-  <si>
-    <t>"10:32"</t>
-  </si>
-  <si>
-    <t>I definitely agree with what James is saying as far as there should be a budget limit. But as far as what people contribute this their money, they earned it, they went out and they work for it and have or they want to spend it. That's up them, that's their business. So I'm completely okay. With that, as far as individual donations, it could be whatever you want but I agree there should be a limit to as far as a budget. I want a degree.</t>
-  </si>
-  <si>
-    <t>"11:02"</t>
-  </si>
-  <si>
-    <t>Yeah, I think limits, they have to be raced at every level, you know, due to inflation 3,000 hours. Ten years ago, was a lot right now is, how much. And so it should be raised better, man. I have a problem with corporations. You know, being seen as a Corp, you know, as an entity would free speech. I just, nope. Nope, sorry, corporations robots, a eyes. Nope. They shouldn't have a say, so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And it elections better. Everything else. Yes, control foreign entities from influencing. There should be some restrictions on that and raise the limits, I didn't see any issues or problems on raising those limits.</t>
-  </si>
-  <si>
-    <t>"11:55"</t>
-  </si>
-  <si>
-    <t>Seems to me that the amount or adequate like has been said before people you know, work hard so they want to contribute that, you know, that's what it is. But just looking at, what was given his background, 14 billion dollars was spent on the last national election. Think about that 14 billion dollars on campaign contributions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abuse ins. Wow. And that seems like that quite a bit. I mean, it is double the amount from the previous election. So anyway, I think the current amounts are we need</t>
-  </si>
-  <si>
-    <t>"12:40"</t>
-  </si>
-  <si>
-    <t>I agree with Clinton James that there should be some cap on how much they can spend on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Campaigns. Because it's just going to keep going up and up, as just got into his ridiculous. And loopholes, it's, you know, why of there are loopholes that exist for foreign-controlled entities, making contributions and everything that's just for them to get more money. So it all comes back to the money.</t>
-  </si>
-  <si>
-    <t>"15:04"</t>
-  </si>
-  <si>
-    <t>I don't think we should ever use public funds to finance any of this. That's my money. It's your money. And we work for we learned it. If we want to donate it, that's fine. But as far as coming out of public funds, I absolutely disagree with that. And then, as far as donors go, I see both sides of it. I may not want you to do it. It's none of your business. But at the same time, I can also understand where people would want to understand. Okay, why did this person back that? This person I can get both sides of that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At.</t>
-  </si>
-  <si>
-    <t>"15:39"</t>
-  </si>
-  <si>
-    <t>Can y'all hear me now, cool? I also agree. Hum sent public funds. I don't get it, but I'm a pretty big fan of knowing who's voted. Who's putting money towards things because I am one of those people. If I see a company that is not backing something that I support, I will choose to go the competitive because that's important to me. And I like having that right, I don't think it should be like, oh, if they donated $1, we should know. But of us on the mount I like to kind of know where</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accompanying set. Sit especially if I'm walking for that company. I want to make sure they're aligned with my values.</t>
-  </si>
-  <si>
-    <t>"16:14"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree that public funds should not be used. That's that's to be used for more pressing matters. If I want to contribute to something, I will do that first one and I have no problem with being disclosed or being identified. I don't think anybody should be a problem with that. So I think that the current laws with the disclosure of who's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contributing I think that should stand placed some of the big wealthy donors. They don't like to have that, but hey that's that's that's too bad.</t>
-  </si>
-  <si>
-    <t>"16:59"</t>
-  </si>
-  <si>
-    <t>I agree that public funds should not be used in any of the elections. Also going down to the bottom as far as packs or concerned. I think it's very important to disclose top donors and officials for packs. So that voters what have information supplied to him about those packs?</t>
-  </si>
-  <si>
-    <t>"18:10"</t>
-  </si>
-  <si>
-    <t>How can we ever guarantee non-partisanship in anything?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If if you have a human being involved they're going to have biases. And it just seems to me that we've to even considers just because we hire someone and they're not appointed by political party, doesn't mean they have personal beliefs. So I just I'll just throw that out there too.</t>
-  </si>
-  <si>
-    <t>"18:39"</t>
-  </si>
-  <si>
-    <t>I would agree. We want to make sure that any of those, the commission's are truly nonpartisan, but I think leaving it the way, it is right now is absolutely recipe for continued disasters, letting the leaders choose who their voters are going to be is just a recipe to entrench up certain groups in power on both sides of the aisle. What I've seen with some commissions is that each party is able to nominate like two officers for a commission and then like a fifth is, you know, chosen. I don't know how independently I'm a basically, allowing the parties.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To nominate their folks, as long as they, you know, meet certain wedding requirements, and such can help to make it, you know, more fair. So I think we need the commission's, you know. Of course, they're going to be debates over how to set them up, but I think is very important that it not be the legislature's, drawing their own boundaries and choosing their voters.</t>
-  </si>
-  <si>
-    <t>"19:24"</t>
-  </si>
-  <si>
-    <t>I want to apologize to my lack of knowledge heal but I was just wondering, does anyone know how often these are redrawn? Because I remember what I learned about this in my class I was shocked by how not fail. It was to some individuals and some folks so I don't know if they're common thing to redraw them or would this be something?</t>
-  </si>
-  <si>
-    <t>"19:43"</t>
-  </si>
-  <si>
-    <t>I think that the independent redistricting commission would be a good thing. Certainly, whoever is in power, whichever parties in power is going to favor themselves. So if you can establish, the non partisan redistricting Commission on a national level, that would be terrific because then it's going to be a balanced strictly working off of, I believe it worked off the consensus of the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yeah, consensus of everybody and it would be good.</t>
-  </si>
-  <si>
-    <t>"20:28"</t>
-  </si>
-  <si>
-    <t>To answer your question, Nikki, I believe it's required to be done every 10 years after each census when the numbers come out in order to make sure that you know any movement of people changes in population are addressed though. I believe there are some states that do it more frequently and in every state that doesn't have the independent commission, it is done by the legislature. And so in legislators that are heavily dominated by one party or another, which is most of our state's to be honest. There are very few like, truly bipartisan State still where they're required to have cooperation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ation and you got one party drawing the lines and again choosing their voters they can split what would be it? You know minority dominant area divided in half and just completely invalidate. The the role of those voters by splitting them into different districts,</t>
-  </si>
-  <si>
-    <t>"21:12"</t>
-  </si>
-  <si>
-    <t>So a similar thing, I'm one of the few counties here in the State of Florida that we don't get to vote for all of the County Commissioners, even because we're not in that District. So we're one of the few but it is kind of aggravating that I can't vote for all the districts because they all vote and make decisions for my County. So I can definitely understand how that is aggravating. I don't exactly know what the answer is for that. But I completely</t>
-  </si>
-  <si>
-    <t>"22:58"</t>
-  </si>
-  <si>
-    <t>I mean I've already mentioned much too.</t>
-  </si>
-  <si>
-    <t>A lot of disagreement that voting is a Civic obligation and should be required mandatory. And also yeah, third-party independent candidates that are all watching day all those fantastic. Now for as far as allowing 16 year, olds to register and vote,</t>
-  </si>
-  <si>
-    <t>I think that we should reconsider that even being a possibility of 16 year olds, their brain isn't halfway developed these kids they can't buy tobacco, they can't buy guns, they can't buy alcohol. Why should we expect them to make changes that will affect policy?</t>
-  </si>
-  <si>
-    <t>"23:43"</t>
-  </si>
-  <si>
-    <t>I completely agree with James on 16 year, olds voting, you know, you got to be 21 by firearm. You have to be 21 to buy cigarettes. You need to be, you know, at least 18 to be able to vote. I'm all for making it easier for third parties, the federal election day, I'm all for that. If it's a holiday if we're not doing all the mail-in voting and all the online voting and stuff, then yes, people can get their get where they need to get and they need to vote. But I think that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At that comes with some pluses and some minuses there.</t>
-  </si>
-  <si>
-    <t>"24:17"</t>
-  </si>
-  <si>
-    <t>I'm going to be Devil's Advocate. I think it would be fantastic for 16 year olds to vote for the school board election. We've talked so much yesterday about how these kids aren't involved. These kids have no idea about anything in government. Well, why don't we let them start off in baby steps. Let them make a change in school board where they will see the effects. And they will be seen though, my vote does matter, because they're seeing their vote, right in front of them in the school. I mean, my parents don't know what happened at my high school. I did, I saw</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The staff Cuts I saw that stuff. I think will be a really cool opportunity to get sixteen year olds involved, and maybe become a new passion for them.</t>
-  </si>
-  <si>
-    <t>"24:56"</t>
-  </si>
-  <si>
-    <t>Hey, I'm all for 16 year, olds voting here in Baton Rouge. You can work at 15. They take taxes out of your check. So why not let them vote as 16? And I'm also with the federal holiday for elections.</t>
-  </si>
-  <si>
-    <t>"25:19"</t>
-  </si>
-  <si>
-    <t>I would agree with 16 year olds voting, but I've seen it done really neatly in some school districts where they actually are students can choose a student representative for the school board. And so, if you allowed the 16 year, olds to, you know, to vote on, you know, rep for each high school, or such to be on the school board and then those kids get to have a role in how policies are set. I think there are, you know, of course Protections in place that I believe the students aren't allowed to participate like on any Personnel matters of you know, there's a teacher up for suspension than that's held in a private session about the kids there. But the students are just given much more of a</t>
-  </si>
-  <si>
-    <t>Voice and also and the experience. And they can take that back to their peers and share it with them. So perhaps, you know, modify that so 16 year olds are voting but for appear to then serve on the school board in a limited capacity. I think is a great way to get them involved. I also agree that election day should be a public holiday.</t>
-  </si>
-  <si>
-    <t>"26:04"</t>
-  </si>
-  <si>
-    <t>I think the 16 year olds voting for their school board. Local school board would be a good idea because that would get a more involved. And I can see that 16 year olds that are really engaged with that to learn a lot from that experience. As far as finding people for not voting, I don't really I don't see that as being a good idea at all.</t>
-  </si>
-  <si>
-    <t>"26:30"</t>
-  </si>
-  <si>
-    <t>As Citizens, I believe it is. Our civic duty to vote</t>
-  </si>
-  <si>
-    <t>16 year olds voting too young. They shouldn't be voting at that age and School elections. I agree with you election day as a holiday. Absolutely I believe that this will help get more voters out to the polls.</t>
-  </si>
-  <si>
-    <t>"26:59"</t>
-  </si>
-  <si>
-    <t>I guess ultimately is the, the student elections. They have like, class president class Treasurer are. Those are those insufficient experience for them to get familiar with the political system, the election system, and if it's not and you do want to grant them voting rights for the school board are there is their way, is their vote, going to carry the same weight as somebody who pays taxes. Somebody who owns property or you know, somebody</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Buddy, who, you know, has actually taken a more practical involvement in the school district itself.</t>
-  </si>
-  <si>
-    <t>"27:38"</t>
-  </si>
-  <si>
-    <t>Yeah, 16 year, old kids, your boat, you know, I removed the 16 part of it because I think if I know you still young, my kids are very smart at 16. My 14 year old kid knows more than all of us here combined. Probably. And so, I will give him the opportunity to vote and get a thing, get started and get involved, a little Buster. What's going on to push him on to bigger things. So, yes, I would go for my boy.</t>
-  </si>
-  <si>
-    <t>Who's who I have 14 and 17. This, they're smart enough to both and ask the right questions and make it a Federal holiday. Yeah, that's a good idea to make it a Federal holiday not to worry about. I have to go to work or do things. So, I'm all for those two.</t>
-  </si>
-  <si>
-    <t>"28:23"</t>
-  </si>
-  <si>
-    <t>So it goes back, their education part. When I was in school, they actually brought the big huge machines in and that's how we voted for class president. That's how we voted for all those things are school. You know, go in there, go behind the curtain, pull the big lever. I mean, we got to do the whole thing and we got see it and it was really exciting. I just don't and I do like what Emily was talking about as far as a student representative on a school board. I do like that idea but it has to be controlled and maintained for sure.</t>
-  </si>
-  <si>
-    <t>"31:08"</t>
-  </si>
-  <si>
-    <t>"32:23"</t>
-  </si>
-  <si>
-    <t>I'm good with.</t>
-  </si>
-  <si>
-    <t>"32:42"</t>
-  </si>
-  <si>
-    <t>Emily. Thank you for putting that question together. Really hope that they pick you and you get to ask this to the panel because I'd like to hear their answers.</t>
-  </si>
-  <si>
-    <t>"32:55"</t>
-  </si>
-  <si>
-    <t>Thank you, I appreciate that.</t>
-  </si>
-  <si>
-    <t>"33:39"</t>
-  </si>
-  <si>
-    <t>I think it's great. Good job.</t>
-  </si>
-  <si>
-    <t>"33:42"</t>
-  </si>
-  <si>
-    <t>I think it's worded perfectly.</t>
-  </si>
-  <si>
-    <t>"33:48"</t>
-  </si>
-  <si>
-    <t>Thanks everyone.</t>
-  </si>
-  <si>
-    <t>"33:49"</t>
-  </si>
-  <si>
-    <t>Looks good to me.</t>
-  </si>
-  <si>
-    <t>"33:53"</t>
-  </si>
-  <si>
-    <t>I like it also.</t>
-  </si>
-  <si>
-    <t>"33:56"</t>
-  </si>
-  <si>
-    <t>Looks good.</t>
-  </si>
-  <si>
-    <t>"33:58"</t>
-  </si>
-  <si>
-    <t>"34:12"</t>
-  </si>
-  <si>
-    <t>I just didn't want it to only be one question, so that's why it is. I'm also changing to election day. It's a it was 8:00 a.m. when we saw this in Alaska. I'm tired old.</t>
-  </si>
-  <si>
-    <t>"34:22"</t>
-  </si>
-  <si>
-    <t>I think I love that question. It's definitely something that has to be answered, whether I like it or don't like it. I mean, it definitely needs to be answered.</t>
-  </si>
-  <si>
-    <t>"34:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I would agree. I think it's a great question Nikki, and I'm really glad you asked it because I happen to favor, mail-in ballots, and I would hate for that for there to be pushed back against that if we did go to a national holiday, I think there's a really good argument in favor of both. And so, how do we keep both of them on the table without losing one or the</t>
-  </si>
-  <si>
-    <t>"34:50"</t>
-  </si>
-  <si>
-    <t>It'll be interesting to see what our panel of experts say. I think the question is worded very well but we'll just see what they have to say about it.</t>
-  </si>
-  <si>
-    <t>"35:03"</t>
-  </si>
-  <si>
-    <t>Does anyone know how you can get this moved up on their agenda? Because I don't think we've been recognized through this whole process our group.</t>
-  </si>
-  <si>
-    <t>"35:13"</t>
-  </si>
-  <si>
-    <t>This is my thought America speaks and my group has never even been called on. So it's I think sometimes it's just random I really I never been called on so no idea.</t>
-  </si>
-  <si>
-    <t>"35:48"</t>
-  </si>
-  <si>
-    <t>None.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -490,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -599,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1681,904 +1302,1099 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"9:51"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I think citizens united was a mistake. I think allowing so much money to be pumped into these campaigns was just a bad idea. In general, I think there should be a Max not contribution but like Max budget for every candidate at each level because I think that would lit level the playing field a bit and especially allow more third-party candidates to have a voice. That's just as loud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"9:51"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One reasons that third-party candidates are pushed out is because we allow these two party candidates gets so much money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"9:51"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"10:32"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>I definitely agree with what James is saying as far as there should be a budget limit. But as far as what people contribute this their money, they earned it, they went out and they work for it and have or they want to spend it. That's up them, that's their business. So I'm completely okay. With that, as far as individual donations, it could be whatever you want but I agree there should be a limit to as far as a budget. I want a degree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48263</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"11:02"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I think limits, they have to be raced at every level, you know, due to inflation 3,000 hours. Ten years ago, was a lot right now is, how much. And so it should be raised better, man. I have a problem with corporations. You know, being seen as a Corp, you know, as an entity would free speech. I just, nope. Nope, sorry, corporations robots, a eyes. Nope. They shouldn't have a say, so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48263</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"11:02"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And it elections better. Everything else. Yes, control foreign entities from influencing. There should be some restrictions on that and raise the limits, I didn't see any issues or problems on raising those limits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"11:55"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Seems to me that the amount or adequate like has been said before people you know, work hard so they want to contribute that, you know, that's what it is. But just looking at, what was given his background, 14 billion dollars was spent on the last national election. Think about that 14 billion dollars on campaign contributions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:55"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Abuse ins. Wow. And that seems like that quite a bit. I mean, it is double the amount from the previous election. So anyway, I think the current amounts are we need</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48326</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"12:40"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Clinton James that there should be some cap on how much they can spend on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48326</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"12:40"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campaigns. Because it's just going to keep going up and up, as just got into his ridiculous. And loopholes, it's, you know, why of there are loopholes that exist for foreign-controlled entities, making contributions and everything that's just for them to get more money. So it all comes back to the money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I don't think we should ever use public funds to finance any of this. That's my money. It's your money. And we work for we learned it. If we want to donate it, that's fine. But as far as coming out of public funds, I absolutely disagree with that. And then, as far as donors go, I see both sides of it. I may not want you to do it. It's none of your business. But at the same time, I can also understand where people would want to understand. Okay, why did this person back that? This person I can get both sides of that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:39"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Can y'all hear me now, cool? I also agree. Hum sent public funds. I don't get it, but I'm a pretty big fan of knowing who's voted. Who's putting money towards things because I am one of those people. If I see a company that is not backing something that I support, I will choose to go the competitive because that's important to me. And I like having that right, I don't think it should be like, oh, if they donated $1, we should know. But of us on the mount I like to kind of know where</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:39"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Accompanying set. Sit especially if I'm walking for that company. I want to make sure they're aligned with my values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"16:14"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree that public funds should not be used. That's that's to be used for more pressing matters. If I want to contribute to something, I will do that first one and I have no problem with being disclosed or being identified. I don't think anybody should be a problem with that. So I think that the current laws with the disclosure of who's</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"16:14"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Contributing I think that should stand placed some of the big wealthy donors. They don't like to have that, but hey that's that's that's too bad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48326</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"16:59"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I agree that public funds should not be used in any of the elections. Also going down to the bottom as far as packs or concerned. I think it's very important to disclose top donors and officials for packs. So that voters what have information supplied to him about those packs?</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>10485</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:10"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>How can we ever guarantee non-partisanship in anything?</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>10485</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:10"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If if you have a human being involved they're going to have biases. And it just seems to me that we've to even considers just because we hire someone and they're not appointed by political party, doesn't mean they have personal beliefs. So I just I'll just throw that out there too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"18:39"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I would agree. We want to make sure that any of those, the commission's are truly nonpartisan, but I think leaving it the way, it is right now is absolutely recipe for continued disasters, letting the leaders choose who their voters are going to be is just a recipe to entrench up certain groups in power on both sides of the aisle. What I've seen with some commissions is that each party is able to nominate like two officers for a commission and then like a fifth is, you know, chosen. I don't know how independently I'm a basically, allowing the parties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"18:39"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To nominate their folks, as long as they, you know, meet certain wedding requirements, and such can help to make it, you know, more fair. So I think we need the commission's, you know. Of course, they're going to be debates over how to set them up, but I think is very important that it not be the legislature's, drawing their own boundaries and choosing their voters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"19:24"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I want to apologize to my lack of knowledge heal but I was just wondering, does anyone know how often these are redrawn? Because I remember what I learned about this in my class I was shocked by how not fail. It was to some individuals and some folks so I don't know if they're common thing to redraw them or would this be something?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:43"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"19:43"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I think that the independent redistricting commission would be a good thing. Certainly, whoever is in power, whichever parties in power is going to favor themselves. So if you can establish, the non partisan redistricting Commission on a national level, that would be terrific because then it's going to be a balanced strictly working off of, I believe it worked off the consensus of the</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"19:43"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> yeah, consensus of everybody and it would be good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"19:43"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"20:28"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>To answer your question, Nikki, I believe it's required to be done every 10 years after each census when the numbers come out in order to make sure that you know any movement of people changes in population are addressed though. I believe there are some states that do it more frequently and in every state that doesn't have the independent commission, it is done by the legislature. And so in legislators that are heavily dominated by one party or another, which is most of our state's to be honest. There are very few like, truly bipartisan State still where they're required to have cooperation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"20:28"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ation and you got one party drawing the lines and again choosing their voters they can split what would be it? You know minority dominant area divided in half and just completely invalidate. The the role of those voters by splitting them into different districts,</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"21:12"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>So a similar thing, I'm one of the few counties here in the State of Florida that we don't get to vote for all of the County Commissioners, even because we're not in that District. So we're one of the few but it is kind of aggravating that I can't vote for all the districts because they all vote and make decisions for my County. So I can definitely understand how that is aggravating. I don't exactly know what the answer is for that. But I completely</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>I mean I've already mentioned much too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>A lot of disagreement that voting is a Civic obligation and should be required mandatory. And also yeah, third-party independent candidates that are all watching day all those fantastic. Now for as far as allowing 16 year, olds to register and vote,</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>I think that we should reconsider that even being a possibility of 16 year olds, their brain isn't halfway developed these kids they can't buy tobacco, they can't buy guns, they can't buy alcohol. Why should we expect them to make changes that will affect policy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"23:43"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>I completely agree with James on 16 year, olds voting, you know, you got to be 21 by firearm. You have to be 21 to buy cigarettes. You need to be, you know, at least 18 to be able to vote. I'm all for making it easier for third parties, the federal election day, I'm all for that. If it's a holiday if we're not doing all the mail-in voting and all the online voting and stuff, then yes, people can get their get where they need to get and they need to vote. But I think that</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"23:43"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At that comes with some pluses and some minuses there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"24:17"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I'm going to be Devil's Advocate. I think it would be fantastic for 16 year olds to vote for the school board election. We've talked so much yesterday about how these kids aren't involved. These kids have no idea about anything in government. Well, why don't we let them start off in baby steps. Let them make a change in school board where they will see the effects. And they will be seen though, my vote does matter, because they're seeing their vote, right in front of them in the school. I mean, my parents don't know what happened at my high school. I did, I saw</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:17"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The staff Cuts I saw that stuff. I think will be a really cool opportunity to get sixteen year olds involved, and maybe become a new passion for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48472</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"24:56"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Hey, I'm all for 16 year, olds voting here in Baton Rouge. You can work at 15. They take taxes out of your check. So why not let them vote as 16? And I'm also with the federal holiday for elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"25:19"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>I would agree with 16 year olds voting, but I've seen it done really neatly in some school districts where they actually are students can choose a student representative for the school board. And so, if you allowed the 16 year, olds to, you know, to vote on, you know, rep for each high school, or such to be on the school board and then those kids get to have a role in how policies are set. I think there are, you know, of course Protections in place that I believe the students aren't allowed to participate like on any Personnel matters of you know, there's a teacher up for suspension than that's held in a private session about the kids there. But the students are just given much more of a</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"25:19"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Voice and also and the experience. And they can take that back to their peers and share it with them. So perhaps, you know, modify that so 16 year olds are voting but for appear to then serve on the school board in a limited capacity. I think is a great way to get them involved. I also agree that election day should be a public holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48326</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"26:04"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>I think the 16 year olds voting for their school board. Local school board would be a good idea because that would get a more involved. And I can see that 16 year olds that are really engaged with that to learn a lot from that experience. As far as finding people for not voting, I don't really I don't see that as being a good idea at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48286</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"26:30"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48286</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"26:30"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48286</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"26:30"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>As Citizens, I believe it is. Our civic duty to vote</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48286</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"26:30"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>16 year olds voting too young. They shouldn't be voting at that age and School elections. I agree with you election day as a holiday. Absolutely I believe that this will help get more voters out to the polls.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"26:59"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>I guess ultimately is the, the student elections. They have like, class president class Treasurer are. Those are those insufficient experience for them to get familiar with the political system, the election system, and if it's not and you do want to grant them voting rights for the school board are there is their way, is their vote, going to carry the same weight as somebody who pays taxes. Somebody who owns property or you know, somebody</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>10383</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"26:59"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Buddy, who, you know, has actually taken a more practical involvement in the school district itself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48263</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"27:38"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, 16 year, old kids, your boat, you know, I removed the 16 part of it because I think if I know you still young, my kids are very smart at 16. My 14 year old kid knows more than all of us here combined. Probably. And so, I will give him the opportunity to vote and get a thing, get started and get involved, a little Buster. What's going on to push him on to bigger things. So, yes, I would go for my boy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48263</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"27:38"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Who's who I have 14 and 17. This, they're smart enough to both and ask the right questions and make it a Federal holiday. Yeah, that's a good idea to make it a Federal holiday not to worry about. I have to go to work or do things. So, I'm all for those two.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"28:23"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>So it goes back, their education part. When I was in school, they actually brought the big huge machines in and that's how we voted for class president. That's how we voted for all those things are school. You know, go in there, go behind the curtain, pull the big lever. I mean, we got to do the whole thing and we got see it and it was really exciting. I just don't and I do like what Emily was talking about as far as a student representative on a school board. I do like that idea but it has to be controlled and maintained for sure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"31:08"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="n"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"31:08"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n"/>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"31:08"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"31:08"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="n"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"31:08"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n"/>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"32:23"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>I'm good with.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>10485</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"32:42"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Emily. Thank you for putting that question together. Really hope that they pick you and you get to ask this to the panel because I'd like to hear their answers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"32:55"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Thank you, I appreciate that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"33:39"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>I think it's great. Good job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"33:42"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>I think it's worded perfectly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"33:48"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Thanks everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48326</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"33:49"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Looks good to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="10">
+      <c r="A64" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"33:53"</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>I like it also.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="10">
+      <c r="A65" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"33:56"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Looks good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="10">
+      <c r="A66" s="3" t="n">
         <v>48286</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"33:58"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Looks good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="10">
+      <c r="A67" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"34:12"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>I just didn't want it to only be one question, so that's why it is. I'm also changing to election day. It's a it was 8:00 a.m. when we saw this in Alaska. I'm tired old.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="10">
+      <c r="A68" s="3" t="n">
         <v>48475</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"34:22"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>I think I love that question. It's definitely something that has to be answered, whether I like it or don't like it. I mean, it definitely needs to be answered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="10">
+      <c r="A69" s="3" t="n">
         <v>10696</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"34:33"</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I would agree. I think it's a great question Nikki, and I'm really glad you asked it because I happen to favor, mail-in ballots, and I would hate for that for there to be pushed back against that if we did go to a national holiday, I think there's a really good argument in favor of both. And so, how do we keep both of them on the table without losing one or the</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="10">
+      <c r="A70" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"34:50"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="n"/>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="10">
+      <c r="A71" s="3" t="n">
         <v>48265</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"34:50"</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>It'll be interesting to see what our panel of experts say. I think the question is worded very well but we'll just see what they have to say about it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="10">
+      <c r="A72" s="3" t="n">
         <v>10485</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"35:03"</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Does anyone know how you can get this moved up on their agenda? Because I don't think we've been recognized through this whole process our group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="10">
+      <c r="A73" s="3" t="n">
         <v>10475</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"35:13"</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>This is my thought America speaks and my group has never even been called on. So it's I think sometimes it's just random I really I never been called on so no idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="10">
+      <c r="A74" s="3" t="n">
         <v>48317</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>103</v>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"35:48"</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>None.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F54F56-9D1F-8C42-AC63-CF04A8549397}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>